--- a/materials/experiments/mfe_final_version/surpriseBlock_select_B.xlsx
+++ b/materials/experiments/mfe_final_version/surpriseBlock_select_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiudit-my.sharepoint.com/personal/kihossei_fiu_edu/Documents/Projects/Psychopy/half_mfeFlanker_version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kihossei/Documents/GitHub/memory-for-error-dataset/materials/experiments/mfe_final_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D53B8657-05BC-3E46-A080-A96AA2FCEB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42D80D46-3482-854D-933E-48ACD78B3825}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60EA644-31B4-AD41-A091-743E73B453AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="7500" windowWidth="25580" windowHeight="7980" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
+    <workbookView xWindow="1780" yWindow="3900" windowWidth="25580" windowHeight="7980" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>whichSurpriseBlock</t>
   </si>
@@ -78,10 +78,31 @@
 To get ready, rest your right and left index fingers on the right and left buttons, then press the right button when you are ready to begin.</t>
   </si>
   <si>
-    <t>a_halfV_surpriseTable2.csv</t>
-  </si>
-  <si>
-    <t>a_halfV_surpriseTable1.csv</t>
+    <t>half_surp_table1.csv</t>
+  </si>
+  <si>
+    <t>half_surp_table2.csv</t>
+  </si>
+  <si>
+    <t>instructfrA1</t>
+  </si>
+  <si>
+    <t>instructfrA2</t>
+  </si>
+  <si>
+    <t>FriendlyKey</t>
+  </si>
+  <si>
+    <t>Unfriendly - Right Key</t>
+  </si>
+  <si>
+    <t>Friendly - Left Key</t>
+  </si>
+  <si>
+    <t>Friendly - Right Key</t>
+  </si>
+  <si>
+    <t>Unfriendly - Left Key</t>
   </si>
 </sst>
 </file>
@@ -437,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D86DD6-21E5-C74C-9F7E-9BC5FB3C43C9}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,7 +471,7 @@
     <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,10 +487,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -483,10 +513,19 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -499,6 +538,15 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
